--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ceacam1-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ceacam1-Sele.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.394923</v>
+        <v>35.89203699999999</v>
       </c>
       <c r="H2">
-        <v>145.184769</v>
+        <v>107.676111</v>
       </c>
       <c r="I2">
-        <v>0.9646625188736886</v>
+        <v>0.9301196142645664</v>
       </c>
       <c r="J2">
-        <v>0.9646625188736887</v>
+        <v>0.9301196142645662</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,10 +552,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.321929333333332</v>
+        <v>0.5273163333333333</v>
       </c>
       <c r="N2">
-        <v>21.965788</v>
+        <v>1.581949</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>354.344206298108</v>
+        <v>18.92645734670433</v>
       </c>
       <c r="R2">
-        <v>3189.097856682971</v>
+        <v>170.338116120339</v>
       </c>
       <c r="S2">
-        <v>0.9646625188736886</v>
+        <v>0.9301196142645664</v>
       </c>
       <c r="T2">
-        <v>0.9646625188736887</v>
+        <v>0.9301196142645662</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>2.786507</v>
       </c>
       <c r="I3">
-        <v>0.01851460645626791</v>
+        <v>0.02407019339680195</v>
       </c>
       <c r="J3">
-        <v>0.01851460645626791</v>
+        <v>0.02407019339680195</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,10 +614,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.321929333333332</v>
+        <v>0.5273163333333333</v>
       </c>
       <c r="N3">
-        <v>21.965788</v>
+        <v>1.581949</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>6.800869113612888</v>
+        <v>0.4897902180158888</v>
       </c>
       <c r="R3">
-        <v>61.20782202251598</v>
+        <v>4.408111962142999</v>
       </c>
       <c r="S3">
-        <v>0.01851460645626791</v>
+        <v>0.02407019339680195</v>
       </c>
       <c r="T3">
-        <v>0.01851460645626791</v>
+        <v>0.02407019339680195</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8439653333333333</v>
+        <v>1.767752333333333</v>
       </c>
       <c r="H4">
-        <v>2.531896</v>
+        <v>5.303257</v>
       </c>
       <c r="I4">
-        <v>0.0168228746700435</v>
+        <v>0.04581019233863175</v>
       </c>
       <c r="J4">
-        <v>0.0168228746700435</v>
+        <v>0.04581019233863175</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.321929333333332</v>
+        <v>0.5273163333333333</v>
       </c>
       <c r="N4">
-        <v>21.965788</v>
+        <v>1.581949</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>6.179454530449777</v>
+        <v>0.9321646786547777</v>
       </c>
       <c r="R4">
-        <v>55.61509077404799</v>
+        <v>8.389482107893</v>
       </c>
       <c r="S4">
-        <v>0.0168228746700435</v>
+        <v>0.04581019233863175</v>
       </c>
       <c r="T4">
-        <v>0.0168228746700435</v>
+        <v>0.04581019233863175</v>
       </c>
     </row>
   </sheetData>
